--- a/biology/Microbiologie/Rhodobacteraceae/Rhodobacteraceae.xlsx
+++ b/biology/Microbiologie/Rhodobacteraceae/Rhodobacteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Rhodobacteraceae sont une famille de protéobactéries de l'ordre  des Rhodobacterales dans le sous-groupe alpha[2]. Comme toutes les protéobactéries, elles sont gram-négatives. Le taxon contient des bactéries chimio-organotrophes et photohétérotrophes. Beaucoup se situent dans des habitats aquatiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Rhodobacteraceae sont une famille de protéobactéries de l'ordre  des Rhodobacterales dans le sous-groupe alpha. Comme toutes les protéobactéries, elles sont gram-négatives. Le taxon contient des bactéries chimio-organotrophes et photohétérotrophes. Beaucoup se situent dans des habitats aquatiques.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 novembre 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (11 novembre 2021) :
 Ahrensia Uchino, Hirata, Yokota &amp; Sugiyama, 1999
 Albidovulum Albuquerque, Santos, Travassos, Nobre, Rainey, Wait, Empadinhas, Silva &amp; da Costa, 2003
 Albimonas Lim, Jeon, Jamg, Park, Shin, Yeo &amp; Kim, 2008
@@ -578,7 +592,7 @@
 Wenxinia Ying, Wang, Dai, Yang, S.J. Liu &amp; Z.P. Liu, 2007
 Woodsholea Abraham, Strömpl, Vancanneyt, Bennasar, Swings, Lünsdorf, Smit &amp; Moore, 2004
 Yangia Dai, Wang, Q.X. Yang, Jiao &amp; S.J. Liu, 2006
-Selon ITIS      (11 novembre 2021)[1] :
+Selon ITIS      (11 novembre 2021) :
 Agaricicola Chu &amp; al., 2010
 Ahrensia Uchino &amp; al., 1999
 Albidovulum Albuquerque &amp; al., 2003
@@ -671,7 +685,7 @@
 Vadicella Romanenko &amp; al., 2011
 Wenxinia Ying &amp; al., 2007
 Yangia Dai &amp; al., 2006
-Selon NCBI  (11 novembre 2021)[4] :
+Selon NCBI  (11 novembre 2021) :
 Acidimangrovimonas Ren &amp; al. 2019
 Aestuariibius Park &amp; al. 2018
 Aestuariicoccus Feng &amp; al. 2018
@@ -798,7 +812,7 @@
 Yoonia Wirth &amp; Whitman 2018
 Youngimonas Hameed &amp; al. 2014
 Zongyanglinia "" Xu &amp; al. 2021
-Selon World Register of Marine Species                               (11 novembre 2021)[5] :
+Selon World Register of Marine Species                               (11 novembre 2021) :
 Ahrensia Uchino, Hirata, Yokota &amp; Sugiyama, 1998
 Albidovulum Albuquerque, Santos, Travassos, Nobre, Rainey, Wait, Empadinhas, Silva &amp; da Costa, 2002
 Albimonas Lim, Jeon, Jang, Park, Shin, Yeo &amp; Kim, 2008
@@ -871,8 +885,43 @@
 Vadicella
 Wenxinia Ying, Wang, Dai, Yang, Liu &amp; Liu, 2007
 Yangia Dai, Wang, Yang, Jiao &amp; Liu, 2006
-Genres provisoires
-Les genres suivants ont été publiés, mais non validés selon le Code International de la Nomenclature Bactérienne :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rhodobacteraceae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodobacteraceae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres provisoires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les genres suivants ont été publiés, mais non validés selon le Code International de la Nomenclature Bactérienne :
 Aliisedimentitalea Kim et al . 2015
 Alterinioella Kong et al . 2021
 Falsigemmobacter Li et al . 2020
@@ -887,41 +936,77 @@
 Polymorphum Cai et al . 2011
 Pseudopontivivens Park et al . 2018
 Roseibacula Nuyanzina-Boldareva et Gorlenko 2014
-Zongyanglinia Xu et al . 2021
-Genres « Candidatus »
-Les genres candidatus suivants ont été publiés[6] :
+Zongyanglinia Xu et al . 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rhodobacteraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhodobacteraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Genres « Candidatus »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les genres candidatus suivants ont été publiés :
 « Candidatus Halichondriibacter » corrig. Knobloch et al . 2019
 « Candidatus Kopriimonas » Quinn et al . 2012</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rhodobacteraceae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhodobacteraceae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature[6] et la phylogénie est basée sur des séquences du génome entier[7],[note 1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature et la phylogénie est basée sur des séquences du génome entier,[note 1].
 </t>
         </is>
       </c>
